--- a/Excel/Monthly Cashflow Template 1 Year.xlsx
+++ b/Excel/Monthly Cashflow Template 1 Year.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7080" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="13" r:id="rId1"/>
@@ -24,7 +24,11 @@
     <sheet name="October" sheetId="2" r:id="rId10"/>
     <sheet name="November" sheetId="7" r:id="rId11"/>
     <sheet name="December" sheetId="1" r:id="rId12"/>
+    <sheet name="Summary" sheetId="14" r:id="rId13"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId14"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">April!$3:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="7">August!$3:$4</definedName>
@@ -68,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>Income $</t>
   </si>
@@ -144,6 +148,57 @@
   <si>
     <t>Subscriptions | AutoPay | Bill paid with other accounts</t>
   </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Total Exenses</t>
+  </si>
+  <si>
+    <t>Total Debt</t>
+  </si>
+  <si>
+    <t>Total Income</t>
+  </si>
+  <si>
+    <t>End of Month Cashflow</t>
+  </si>
+  <si>
+    <t>Total Saving</t>
+  </si>
 </sst>
 </file>
 
@@ -156,9 +211,23 @@
     <numFmt numFmtId="166" formatCode="[$-409]dddd\ dd"/>
     <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,7 +346,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +391,12 @@
       <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -580,44 +655,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="2">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,7 +707,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -636,132 +716,147 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="0" xfId="11" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="13" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="16">
+    <cellStyle name="20% - Accent1" xfId="13" builtinId="30"/>
+    <cellStyle name="20% - Accent1 2" xfId="15"/>
     <cellStyle name="Break" xfId="8"/>
     <cellStyle name="Currency" xfId="9" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="6" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text 2" xfId="14"/>
     <cellStyle name="Good" xfId="10" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -3572,6 +3667,1120 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Debt vs Cashflow</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39759711286089239"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$D$1:$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Total Debt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> $-   </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-806E-42CA-BC3F-08AE9C012E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Summary!$F$1:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>End of Month Cashflow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> $-   </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> $-   </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-806E-42CA-BC3F-08AE9C012E54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1781865391"/>
+        <c:axId val="1781862479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1781865391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781862479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1781862479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781865391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368194</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1376723</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>128427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Summary"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4129,8 +5338,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4144,63 +5353,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="25">
         <v>44927</v>
       </c>
@@ -4216,10 +5425,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -4912,8 +6121,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4927,56 +6136,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -5004,10 +6213,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -5715,7 +6924,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -5795,8 +7004,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5810,63 +7019,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="22">
         <v>45231</v>
       </c>
@@ -5889,10 +7098,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -6583,7 +7792,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="31">
-        <f>SUM(D5:D10, D17:D23, D25:D32)</f>
+        <f>SUM(D5:D34)</f>
         <v>0</v>
       </c>
       <c r="E35" s="10">
@@ -6667,8 +7876,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6682,63 +7891,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="22">
         <v>45261</v>
       </c>
@@ -6764,10 +7973,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -7475,7 +8684,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -7552,6 +8761,349 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="32">
+        <f>January!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <f>January!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="32">
+        <f>January!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="32">
+        <f>January!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="32">
+        <f>January!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="32">
+        <f>February!D33</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="32">
+        <f>February!E33</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="32">
+        <f>February!F33</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="32">
+        <f>February!G33</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="32">
+        <f>February!H33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="32">
+        <f ca="1">March!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="32">
+        <f>March!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <f>March!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <f>March!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="32">
+        <f ca="1">March!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="32">
+        <f>April!D35</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="32">
+        <f>April!E35</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="32">
+        <f>April!F35</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="32">
+        <f>April!G35</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="32">
+        <f>April!H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="32">
+        <f>May!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="32">
+        <f>May!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="32">
+        <f>May!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="32">
+        <f>May!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="32">
+        <f>May!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="32">
+        <f ca="1">June!D35</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <f>June!E35</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <f>June!F35</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="32">
+        <f>June!G35</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <f ca="1">June!H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32">
+        <f>July!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="32">
+        <f>July!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="32">
+        <f>July!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="32">
+        <f>July!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <f>July!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="32">
+        <f>August!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
+        <f>August!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="32">
+        <f>August!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="32">
+        <f>August!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <f>August!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="32">
+        <f>September!D35</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="32">
+        <f>September!E35</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="32">
+        <f>September!F35</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="32">
+        <f>September!G35</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
+        <f>September!H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="32">
+        <f>October!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="32">
+        <f>October!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="32">
+        <f>October!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <f>October!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <f>October!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="32">
+        <f>November!D35</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="32">
+        <f>November!E35</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="32">
+        <f>November!F35</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="32">
+        <f>November!G35</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="32">
+        <f>November!H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="32">
+        <f>December!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="32">
+        <f>December!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="32">
+        <f>December!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="32">
+        <f>December!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
+        <f>December!H36</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -7560,8 +9112,8 @@
   </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7575,63 +9127,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="22">
         <v>44958</v>
       </c>
@@ -7656,10 +9208,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
@@ -8325,7 +9877,7 @@
         <v>6</v>
       </c>
       <c r="D33" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
+        <f>SUM(D5:D32)</f>
         <v>0</v>
       </c>
       <c r="E33" s="10">
@@ -8406,8 +9958,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView showGridLines="0" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8421,63 +9973,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="22">
         <v>44986</v>
       </c>
@@ -8500,10 +10052,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -9217,7 +10769,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
+        <f ca="1">SUM(D5:D36)</f>
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -9233,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="H36" s="6">
-        <f xml:space="preserve"> F36 - D36</f>
+        <f ca="1" xml:space="preserve"> F36 - D36</f>
         <v>0</v>
       </c>
     </row>
@@ -9298,8 +10850,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9313,56 +10865,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -9390,10 +10942,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -10086,7 +11638,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
+        <f>SUM(D5:D34)</f>
         <v>0</v>
       </c>
       <c r="E35" s="10">
@@ -10166,8 +11718,8 @@
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10181,56 +11733,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -10258,10 +11810,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -10972,7 +12524,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D8, D17:D23,D13,D9, D25:D32)</f>
+        <f>SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -11052,8 +12604,8 @@
   </sheetPr>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11067,56 +12619,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -11144,10 +12696,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -11842,7 +13394,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f ca="1">SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E35" s="10">
@@ -11858,7 +13410,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="6">
-        <f xml:space="preserve"> F35 - D35</f>
+        <f ca="1" xml:space="preserve"> F35 - D35</f>
         <v>0</v>
       </c>
     </row>
@@ -11928,7 +13480,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11942,56 +13494,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -12019,10 +13571,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -12730,7 +14282,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -12811,7 +14363,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12825,56 +14377,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -12902,10 +14454,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
@@ -13616,7 +15168,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D35)</f>
         <v>0</v>
       </c>
       <c r="E36" s="10">
@@ -13696,8 +15248,8 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13711,56 +15263,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="41" t="s">
+      <c r="F3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -13791,10 +15343,10 @@
       <c r="H5" s="6">
         <v>0</v>
       </c>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -14484,7 +16036,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="10">
-        <f>SUM(D5:D10, D12:D23, D25:D32)</f>
+        <f>SUM(D5:D34)</f>
         <v>0</v>
       </c>
       <c r="E35" s="10">
